--- a/biology/Médecine/Mycose_cutanée_(maladie_professionnelle)/Mycose_cutanée_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Mycose_cutanée_(maladie_professionnelle)/Mycose_cutanée_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mycoses cutanées peuvent être reconnue comme maladie professionnelle dans certains pays, sous condition.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère plus juridique que médical. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,45 +559,311 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Dermatophytoses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étiologie
-Les dermatophytoses (ou dermatophytie ou dermatomycose) sont des infections de la peau ou des phanères dues à des champignons microscopiques filamenteux : les dermatophytes. Ils appartiennent à 3 genres, Trichophyton, Microsporum et Epidermophyton. 
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dermatophytoses (ou dermatophytie ou dermatomycose) sont des infections de la peau ou des phanères dues à des champignons microscopiques filamenteux : les dermatophytes. Ils appartiennent à 3 genres, Trichophyton, Microsporum et Epidermophyton. 
 Ces champignons sont kératinophiles, ils ont une prédilection pour la kératine de la couche cornée de la peau, des poils, des cheveux et des ongles chez l'être humain, de la peau, des poils et des griffes chez l'animal. 
 Ils sont responsables d'infections cutanées superficielles de la peau et des phanères mais respectent toujours les muqueuses. 
 Les dermatophytes sont toujours pathogènes, absents de la flore commensale permanente ou transitoire de la peau.
-Données professionnelles
-Les dermatophytes, responsables en particulier des teignes et kérion peuvent être transmises de l'animal à l'homme pour les éleveurs ou les ouvriers d'abattoirs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dermatophytoses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dermatophytes, responsables en particulier des teignes et kérion peuvent être transmises de l'animal à l'homme pour les éleveurs ou les ouvriers d'abattoirs.
 Certaines mycoses peuvent être transmises par contact de surfaces contaminées avec la peau humide (travail en milieu aquatique tel que piscines).
 Les lésions des ongles (onyxis et périonyxis) sont favorisés par le contact des doigts avec des produits sucrés.
-Données médicales
-Les teignes
-Ce sont des lésions dues à l'atteinte des cheveux ou des poils.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dermatophytoses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les teignes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ce sont des lésions dues à l'atteinte des cheveux ou des poils.
 Teignes tondantes sèches
 provoquent des plaques d'alopécie sur le cuir chevelu. Le bulbe du cheveu n'est pas atteint et les cheveux sont cassés courts à quelques mm. Ils atteignent surtout les enfants. La guérison est spontanée après la puberté. Il en existe deux sortes :
 - les teignes tondantes sèches microsporiques. La plus fréquente est due à M. Canis. Il existe une forme d'Extrême-Orient due à M. ferrugineum. Les plaques sont peu nombreuses (1 à 4) et de grandes tailles (4 à 7 cm).
 - les teignes tondantes sèches trichophytiques, très contagieuses. Les plaques sont beaucoup plus nombreuses et plus petites (5 mm). Le cheveu est cassé plus court.
 Teignes faviques
-dues à T. schoenleini, anthropophile, chez l'enfant et l'adulte, cosmopolite mais de plus en plus rare en France. La teigne favique (ou favus) débute par une tâche érythémato-squameuse et évolue après des mois vers des plaques crouteuses et un godet favique de quelques mm, centré par un cheveu. La fusion de plusieurs godets réalise une croûte favique. Lorsque les cheveux tombent, ils forment une plaque d'alopécie définitive. Le favus ne guérit pas sans traitement.  Cette maladie touche le cuir chevelu, mais parfois le visage[3] et d'autres régions du corps, avec des lésions " en godets" .
+dues à T. schoenleini, anthropophile, chez l'enfant et l'adulte, cosmopolite mais de plus en plus rare en France. La teigne favique (ou favus) débute par une tâche érythémato-squameuse et évolue après des mois vers des plaques crouteuses et un godet favique de quelques mm, centré par un cheveu. La fusion de plusieurs godets réalise une croûte favique. Lorsque les cheveux tombent, ils forment une plaque d'alopécie définitive. Le favus ne guérit pas sans traitement.  Cette maladie touche le cuir chevelu, mais parfois le visage et d'autres régions du corps, avec des lésions " en godets" .
 Teignes suppurées
-ou kérions de Celse. Rencontrées chez l'adulte et l'enfant, dues à des dermatophytes anthropo-zoophiles : T. mentagrophytes et T. verrucosum. Les kérions atteignent le cuir chevelu et les zones pileuses (notamment la barbe ou la moustache). Les cheveux ou les poils tombent mais repoussent.
-Les épidermophyties
-Ce sont des atteintes de la peau glabre. 
+ou kérions de Celse. Rencontrées chez l'adulte et l'enfant, dues à des dermatophytes anthropo-zoophiles : T. mentagrophytes et T. verrucosum. Les kérions atteignent le cuir chevelu et les zones pileuses (notamment la barbe ou la moustache). Les cheveux ou les poils tombent mais repoussent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dermatophytoses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Les épidermophyties</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des atteintes de la peau glabre. 
 Herpès circiné
-La plus fréquente des épidermophyties, chez l'adulte et l'enfant : tache érythémato-squameuse qui s'étend de façon excentrique, la zone centrale devenant plus claire et cicatricielle, la périphérie étant rouge, squameuse ou vésiculaire[4]. Unique ou multiples. Il existe des formes cliniques trompeuses. L'herpès circiné n'a rien à voir avec le virus de l'herpès (Herpès simplex virus).
+La plus fréquente des épidermophyties, chez l'adulte et l'enfant : tache érythémato-squameuse qui s'étend de façon excentrique, la zone centrale devenant plus claire et cicatricielle, la périphérie étant rouge, squameuse ou vésiculaire. Unique ou multiples. Il existe des formes cliniques trompeuses. L'herpès circiné n'a rien à voir avec le virus de l'herpès (Herpès simplex virus).
 L'eczéma marginé de Hebra
 C'est une atteinte du pli inguinal, d'aspect comparable à un herpès circiné, s'étendant rapidement, parfois de façon très importante, très prurigineuse.
 Intertrigo interdigito-plantaire
 Les mycoses des pieds sont l'une des infections les plus courantes des pieds.
-Les onyxis
-C'est une lésion qui débute par une atteinte du bord libre de l'ongle, par une tache jaunâtre, d'extension lente. 
-Les dermatophytides
-Sont des manifestations allergiques à distance du foyer infectieux. L'aspect est celui d'une dyshidrose, mais peut aussi ressembler à un herpès circiné, bien que l'on ne retrouve aucun dermatophyte à cet endroit (lésion appelé aussi mycétide).  
-Diagnostic et traitement
-Le diagnostic se fait après prélèvement(s), examen microscopique et cultures. Le traitement est en général à base de griséofulvine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dermatophytoses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Les onyxis</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une lésion qui débute par une atteinte du bord libre de l'ongle, par une tache jaunâtre, d'extension lente. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dermatophytoses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Les dermatophytides</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont des manifestations allergiques à distance du foyer infectieux. L'aspect est celui d'une dyshidrose, mais peut aussi ressembler à un herpès circiné, bien que l'on ne retrouve aucun dermatophyte à cet endroit (lésion appelé aussi mycétide).  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mycose_cutanée_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycose_cutan%C3%A9e_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dermatophytoses</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Diagnostic et traitement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic se fait après prélèvement(s), examen microscopique et cultures. Le traitement est en général à base de griséofulvine.
 </t>
         </is>
       </c>
